--- a/PRODUCTOS.xlsx
+++ b/PRODUCTOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\excel-to-json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9689AE72-F4DD-41BA-B410-0A18D4738F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73945CBD-45EC-4D19-85BA-61B00E7BCD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C91D6A3E-6F4C-4055-902C-35391081C506}"/>
   </bookViews>
@@ -1561,9 +1561,6 @@
     <t>KIT</t>
   </si>
   <si>
-    <t>PHD Completo (Paquete de Distribuidor Herbalife) Membresia</t>
-  </si>
-  <si>
     <t>Kit de Inicio de Cliente Preferente</t>
   </si>
   <si>
@@ -1601,6 +1598,9 @@
   </si>
   <si>
     <t>Cuota Anual de Servicios para Clientes Preferentes</t>
+  </si>
+  <si>
+    <t>PHD Completo (Paquete de Distribuidor Herbalife) Kit Membresia</t>
   </si>
 </sst>
 </file>
@@ -2305,7 +2305,7 @@
   <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94:E99"/>
+      <selection activeCell="C104" sqref="C103:C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>97</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="93" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B93" s="55" t="s">
         <v>146</v>
@@ -5502,10 +5502,10 @@
         <v>147</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="27" x14ac:dyDescent="0.25">
       <c r="A94" s="47"/>
       <c r="B94" s="48" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C94" s="49"/>
       <c r="D94" s="50"/>
@@ -5523,10 +5523,10 @@
     </row>
     <row r="95" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B95" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C95" s="49"/>
       <c r="D95" s="50"/>
@@ -5544,10 +5544,10 @@
     </row>
     <row r="96" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="B96" s="52" t="s">
         <v>171</v>
-      </c>
-      <c r="B96" s="52" t="s">
-        <v>172</v>
       </c>
       <c r="C96" s="49"/>
       <c r="D96" s="50"/>
@@ -5565,10 +5565,10 @@
     </row>
     <row r="97" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B97" s="60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C97" s="61"/>
       <c r="D97" s="62"/>
@@ -5581,15 +5581,15 @@
       <c r="I97" s="62"/>
       <c r="J97" s="62"/>
       <c r="K97" s="63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B98" s="60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C98" s="61"/>
       <c r="D98" s="62"/>
@@ -5602,15 +5602,15 @@
       <c r="I98" s="62"/>
       <c r="J98" s="62"/>
       <c r="K98" s="63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B99" s="64" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C99" s="61"/>
       <c r="D99" s="62"/>
@@ -5623,7 +5623,7 @@
       <c r="I99" s="62"/>
       <c r="J99" s="62"/>
       <c r="K99" s="63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/PRODUCTOS.xlsx
+++ b/PRODUCTOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\excel-to-json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73945CBD-45EC-4D19-85BA-61B00E7BCD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC3E9FC-8CAA-4139-BA1C-FC814B9F54EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C91D6A3E-6F4C-4055-902C-35391081C506}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="187">
   <si>
     <r>
       <rPr>
@@ -1601,6 +1601,42 @@
   </si>
   <si>
     <t>PHD Completo (Paquete de Distribuidor Herbalife) Kit Membresia</t>
+  </si>
+  <si>
+    <t>442K</t>
+  </si>
+  <si>
+    <t>Porciones individuales Herbal Aloe Concentrado (30 porciones)</t>
+  </si>
+  <si>
+    <t>15 ml Mandarina</t>
+  </si>
+  <si>
+    <t>483K</t>
+  </si>
+  <si>
+    <t>Porciones individuales Thermojetics Concentrado de Hierbas (15 porciones)</t>
+  </si>
+  <si>
+    <t>1.7 g Original</t>
+  </si>
+  <si>
+    <t>491K</t>
+  </si>
+  <si>
+    <t>Porciones individuales N-R-G Té (15 porciones)</t>
+  </si>
+  <si>
+    <t>1 g Original</t>
+  </si>
+  <si>
+    <t>494K</t>
+  </si>
+  <si>
+    <t>Café Instántaneo</t>
+  </si>
+  <si>
+    <t>CAFÉ</t>
   </si>
 </sst>
 </file>
@@ -1671,7 +1707,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1703,12 +1739,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1727,13 +1757,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1794,7 +1824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1850,12 +1880,6 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1901,6 +1925,24 @@
     <xf numFmtId="49" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1916,23 +1958,8 @@
     <xf numFmtId="49" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1952,9 +1979,6 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1970,22 +1994,13 @@
     <xf numFmtId="49" fontId="6" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2302,10 +2317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4C0261-FD66-4F8C-A6DC-076C5BC254CB}">
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C104" sqref="C103:C104"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2323,19 +2338,19 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="35" t="s">
         <v>154</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="38" t="s">
         <v>157</v>
       </c>
       <c r="G1" s="6">
@@ -2347,7 +2362,7 @@
       <c r="I1" s="6">
         <v>0.42</v>
       </c>
-      <c r="J1" s="46">
+      <c r="J1" s="39">
         <v>0.5</v>
       </c>
       <c r="K1" s="8" t="s">
@@ -2705,2924 +2720,3062 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="52">
         <v>6</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="55">
         <v>24.95</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="55">
         <v>497.73</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="55">
         <v>642</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="55">
         <v>496.67</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="55">
         <v>438.82</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="55">
         <v>398.32</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="55">
         <v>352.04</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="56" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="52">
         <v>1065</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="55">
         <v>24.95</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="55">
         <v>497.73</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="55">
         <v>642</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="55">
         <v>496.67</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="55">
         <v>438.82</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="55">
         <v>398.32</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="55">
         <v>352.04</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="56" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="52">
         <v>2631</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="55">
         <v>24.95</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="55">
         <v>497.73</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="55">
         <v>642</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="55">
         <v>496.67</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="55">
         <v>438.82</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="55">
         <v>398.32</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="55">
         <v>352.04</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="56" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="55">
+        <v>24.15</v>
+      </c>
+      <c r="E15" s="55">
+        <v>482.64</v>
+      </c>
+      <c r="F15" s="55">
+        <v>781</v>
+      </c>
+      <c r="G15" s="55">
+        <v>640.26</v>
+      </c>
+      <c r="H15" s="55">
+        <v>584.28</v>
+      </c>
+      <c r="I15" s="55">
+        <v>545.09</v>
+      </c>
+      <c r="J15" s="55">
+        <v>500.3</v>
+      </c>
+      <c r="K15" s="56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="52">
         <v>1610</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B16" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C16" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D16" s="55">
         <v>24.95</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E16" s="55">
         <v>497.73</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F16" s="55">
         <v>642</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G16" s="55">
         <v>496.67</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H16" s="55">
         <v>438.82</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I16" s="55">
         <v>398.32</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J16" s="55">
         <v>352.04</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="K16" s="56" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B17" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D17" s="55">
         <v>92.55</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E17" s="55">
         <v>1804.15</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F17" s="55">
         <v>2320</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G17" s="55">
         <v>1796.74</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H17" s="55">
         <v>1587.46</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I17" s="55">
         <v>1440.96</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J17" s="55">
         <v>1273.54</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="K17" s="56" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B18" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C18" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D18" s="22">
         <v>5.45</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E18" s="22">
         <v>117.78</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F18" s="22">
         <v>264</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G18" s="22">
         <v>229.62</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H18" s="22">
         <v>215.96</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I18" s="22">
         <v>206.39</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J18" s="22">
         <v>195.46</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K18" s="23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B19" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C19" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D19" s="22">
         <v>5.45</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E19" s="22">
         <v>117.78</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F19" s="22">
         <v>228</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G19" s="22">
         <v>193.55</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H19" s="22">
         <v>179.89</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I19" s="22">
         <v>170.33</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J19" s="22">
         <v>159.4</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="K19" s="23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B20" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C20" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D20" s="22">
         <v>5.45</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E20" s="22">
         <v>117.78</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F20" s="22">
         <v>228</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G20" s="22">
         <v>193.55</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H20" s="22">
         <v>179.89</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I20" s="22">
         <v>170.33</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J20" s="22">
         <v>159.4</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="K20" s="23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+    <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B21" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C21" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D21" s="22">
         <v>10.7</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E21" s="22">
         <v>220.44</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F21" s="22">
         <v>461</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G21" s="22">
         <v>396.15</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H21" s="22">
         <v>370.57</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I21" s="22">
         <v>352.67</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J21" s="22">
         <v>332.22</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="K21" s="23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B22" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C22" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D22" s="55">
         <v>40.25</v>
       </c>
-      <c r="E21" s="50">
+      <c r="E22" s="55">
         <v>786.12</v>
       </c>
-      <c r="F21" s="50">
+      <c r="F22" s="55">
         <v>1301</v>
       </c>
-      <c r="G21" s="50">
+      <c r="G22" s="55">
         <v>1015.74</v>
       </c>
-      <c r="H21" s="50">
+      <c r="H22" s="55">
         <v>901.75</v>
       </c>
-      <c r="I21" s="50">
+      <c r="I22" s="55">
         <v>821.96</v>
       </c>
-      <c r="J21" s="50">
+      <c r="J22" s="55">
         <v>730.77</v>
       </c>
-      <c r="K21" s="51" t="s">
+      <c r="K22" s="56" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B23" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C23" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="50">
+      <c r="D23" s="55">
         <v>40.25</v>
       </c>
-      <c r="E22" s="50">
+      <c r="E23" s="55">
         <v>786.12</v>
       </c>
-      <c r="F22" s="50">
+      <c r="F23" s="55">
         <v>1301</v>
       </c>
-      <c r="G22" s="50">
+      <c r="G23" s="55">
         <v>1015.74</v>
       </c>
-      <c r="H22" s="50">
+      <c r="H23" s="55">
         <v>901.75</v>
       </c>
-      <c r="I22" s="50">
+      <c r="I23" s="55">
         <v>821.96</v>
       </c>
-      <c r="J22" s="50">
+      <c r="J23" s="55">
         <v>730.77</v>
       </c>
-      <c r="K22" s="51" t="s">
+      <c r="K23" s="56" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B24" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C24" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="50">
+      <c r="D24" s="55">
         <v>40.25</v>
       </c>
-      <c r="E23" s="50">
+      <c r="E24" s="55">
         <v>786.12</v>
       </c>
-      <c r="F23" s="50">
+      <c r="F24" s="55">
         <v>1301</v>
       </c>
-      <c r="G23" s="50">
+      <c r="G24" s="55">
         <v>1015.74</v>
       </c>
-      <c r="H23" s="50">
+      <c r="H24" s="55">
         <v>901.75</v>
       </c>
-      <c r="I23" s="50">
+      <c r="I24" s="55">
         <v>821.96</v>
       </c>
-      <c r="J23" s="50">
+      <c r="J24" s="55">
         <v>730.77</v>
       </c>
-      <c r="K23" s="51" t="s">
+      <c r="K24" s="56" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="53" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="B24" s="52" t="s">
+      <c r="B25" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C25" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="50">
+      <c r="D25" s="55">
         <v>40.25</v>
       </c>
-      <c r="E24" s="50">
+      <c r="E25" s="55">
         <v>786.12</v>
       </c>
-      <c r="F24" s="50">
+      <c r="F25" s="55">
         <v>1301</v>
       </c>
-      <c r="G24" s="50">
+      <c r="G25" s="55">
         <v>1015.74</v>
       </c>
-      <c r="H24" s="50">
+      <c r="H25" s="55">
         <v>901.75</v>
       </c>
-      <c r="I24" s="50">
+      <c r="I25" s="55">
         <v>821.96</v>
       </c>
-      <c r="J24" s="50">
+      <c r="J25" s="55">
         <v>730.77</v>
       </c>
-      <c r="K24" s="51" t="s">
+      <c r="K25" s="56" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B26" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C26" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D26" s="27">
         <v>32</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E26" s="27">
         <v>733.14</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F26" s="27">
         <v>960</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G26" s="27">
         <v>746.55</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H26" s="27">
         <v>661.5</v>
       </c>
-      <c r="I25" s="34">
+      <c r="I26" s="27">
         <v>601.97</v>
       </c>
-      <c r="J25" s="34">
+      <c r="J26" s="27">
         <v>533.94000000000005</v>
       </c>
-      <c r="K25" s="35" t="s">
+      <c r="K26" s="28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="31">
+    <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="24">
         <v>964</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B27" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C27" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D27" s="27">
         <v>34.950000000000003</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E27" s="27">
         <v>819.3</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F27" s="27">
         <v>909</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G27" s="27">
         <v>703.39</v>
       </c>
-      <c r="H26" s="34">
+      <c r="H27" s="27">
         <v>621.46</v>
       </c>
-      <c r="I26" s="34">
+      <c r="I27" s="27">
         <v>564.1</v>
       </c>
-      <c r="J26" s="34">
+      <c r="J27" s="27">
         <v>498.56</v>
       </c>
-      <c r="K26" s="35" t="s">
+      <c r="K27" s="28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="31">
+    <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="24">
         <v>963</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B28" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C28" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D28" s="27">
         <v>19.95</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E28" s="27">
         <v>448.17</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F28" s="27">
         <v>497</v>
       </c>
-      <c r="G27" s="34">
+      <c r="G28" s="27">
         <v>384.76</v>
       </c>
-      <c r="H27" s="34">
+      <c r="H28" s="27">
         <v>339.94</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I28" s="27">
         <v>308.57</v>
       </c>
-      <c r="J27" s="34">
+      <c r="J28" s="27">
         <v>272.72000000000003</v>
       </c>
-      <c r="K27" s="35" t="s">
+      <c r="K28" s="28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="31">
+    <row r="29" spans="1:11" ht="27" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="27">
+        <v>10.15</v>
+      </c>
+      <c r="E29" s="27">
+        <v>228.38</v>
+      </c>
+      <c r="F29" s="27">
+        <v>276</v>
+      </c>
+      <c r="G29" s="27">
+        <v>218.64</v>
+      </c>
+      <c r="H29" s="27">
+        <v>195.8</v>
+      </c>
+      <c r="I29" s="27">
+        <v>179.81</v>
+      </c>
+      <c r="J29" s="27">
+        <v>161.54</v>
+      </c>
+      <c r="K29" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="24">
         <v>1638</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B30" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C30" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D30" s="27">
         <v>19.95</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E30" s="27">
         <v>448.17</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F30" s="27">
         <v>497</v>
       </c>
-      <c r="G28" s="34">
+      <c r="G30" s="27">
         <v>384.76</v>
       </c>
-      <c r="H28" s="34">
+      <c r="H30" s="27">
         <v>339.94</v>
       </c>
-      <c r="I28" s="34">
+      <c r="I30" s="27">
         <v>308.57</v>
       </c>
-      <c r="J28" s="34">
+      <c r="J30" s="27">
         <v>272.72000000000003</v>
       </c>
-      <c r="K28" s="35" t="s">
+      <c r="K30" s="28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="31">
+    <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="24">
         <v>922</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B31" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C31" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D31" s="27">
         <v>19.95</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E31" s="27">
         <v>448.17</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F31" s="27">
         <v>497</v>
       </c>
-      <c r="G29" s="34">
+      <c r="G31" s="27">
         <v>384.76</v>
       </c>
-      <c r="H29" s="34">
+      <c r="H31" s="27">
         <v>339.94</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I31" s="27">
         <v>308.57</v>
       </c>
-      <c r="J29" s="34">
+      <c r="J31" s="27">
         <v>272.72000000000003</v>
       </c>
-      <c r="K29" s="35" t="s">
+      <c r="K31" s="28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="31">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="24">
         <v>1428</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B32" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C32" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D32" s="27">
         <v>28.25</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E32" s="27">
         <v>696.4</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F32" s="27">
         <v>772</v>
       </c>
-      <c r="G30" s="34">
+      <c r="G32" s="27">
         <v>597.9</v>
       </c>
-      <c r="H30" s="34">
+      <c r="H32" s="27">
         <v>528.26</v>
       </c>
-      <c r="I30" s="34">
+      <c r="I32" s="27">
         <v>479.51</v>
       </c>
-      <c r="J30" s="34">
+      <c r="J32" s="27">
         <v>423.8</v>
       </c>
-      <c r="K30" s="35" t="s">
+      <c r="K32" s="28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="31">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="24">
         <v>85</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B33" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C33" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D33" s="27">
         <v>14.75</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E33" s="27">
         <v>332.47</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F33" s="27">
         <v>369</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G33" s="27">
         <v>258.43</v>
       </c>
-      <c r="H31" s="34">
+      <c r="H33" s="27">
         <v>252.19</v>
       </c>
-      <c r="I31" s="34">
+      <c r="I33" s="27">
         <v>228.91</v>
       </c>
-      <c r="J31" s="34">
+      <c r="J33" s="27">
         <v>202.32</v>
       </c>
-      <c r="K31" s="35" t="s">
+      <c r="K33" s="28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="31">
+    <row r="34" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34" s="27">
+        <v>3.95</v>
+      </c>
+      <c r="E34" s="27">
+        <v>88.55</v>
+      </c>
+      <c r="F34" s="27">
+        <v>125</v>
+      </c>
+      <c r="G34" s="27">
+        <v>102.25</v>
+      </c>
+      <c r="H34" s="27">
+        <v>93.4</v>
+      </c>
+      <c r="I34" s="27">
+        <v>87.2</v>
+      </c>
+      <c r="J34" s="27">
+        <v>80.12</v>
+      </c>
+      <c r="K34" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="24">
         <v>2131</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B35" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C35" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="34">
+      <c r="D35" s="27">
         <v>14.75</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E35" s="27">
         <v>332.47</v>
       </c>
-      <c r="F32" s="34">
+      <c r="F35" s="27">
         <v>369</v>
       </c>
-      <c r="G32" s="34">
+      <c r="G35" s="27">
         <v>258.43</v>
       </c>
-      <c r="H32" s="34">
+      <c r="H35" s="27">
         <v>252.19</v>
       </c>
-      <c r="I32" s="34">
+      <c r="I35" s="27">
         <v>228.91</v>
       </c>
-      <c r="J32" s="34">
+      <c r="J35" s="27">
         <v>202.32</v>
       </c>
-      <c r="K32" s="35" t="s">
+      <c r="K35" s="28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="36">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="22">
+        <v>7.35</v>
+      </c>
+      <c r="E36" s="22">
+        <v>173.97</v>
+      </c>
+      <c r="F36" s="22">
+        <v>290</v>
+      </c>
+      <c r="G36" s="22">
+        <v>246.45</v>
+      </c>
+      <c r="H36" s="22">
+        <v>229.05</v>
+      </c>
+      <c r="I36" s="22">
+        <v>216.87</v>
+      </c>
+      <c r="J36" s="22">
+        <v>202.96</v>
+      </c>
+      <c r="K36" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="52">
         <v>242</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B37" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C37" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="39">
+      <c r="D37" s="55">
         <v>17.95</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E37" s="55">
         <v>463.72</v>
       </c>
-      <c r="F33" s="39">
+      <c r="F37" s="55">
         <v>597</v>
       </c>
-      <c r="G33" s="39">
+      <c r="G37" s="55">
         <v>461.82</v>
       </c>
-      <c r="H33" s="39">
+      <c r="H37" s="55">
         <v>408.03</v>
       </c>
-      <c r="I33" s="39">
+      <c r="I37" s="55">
         <v>370.37</v>
       </c>
-      <c r="J33" s="39">
+      <c r="J37" s="55">
         <v>327.33999999999997</v>
       </c>
-      <c r="K33" s="40" t="s">
+      <c r="K37" s="56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="36">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="52">
         <v>2648</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B38" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C38" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="39">
+      <c r="D38" s="55">
         <v>17.95</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E38" s="55">
         <v>463.72</v>
       </c>
-      <c r="F34" s="39">
+      <c r="F38" s="55">
         <v>597</v>
       </c>
-      <c r="G34" s="39">
+      <c r="G38" s="55">
         <v>461.82</v>
       </c>
-      <c r="H34" s="39">
+      <c r="H38" s="55">
         <v>408.03</v>
       </c>
-      <c r="I34" s="39">
+      <c r="I38" s="55">
         <v>370.37</v>
       </c>
-      <c r="J34" s="39">
+      <c r="J38" s="55">
         <v>327.33999999999997</v>
       </c>
-      <c r="K34" s="40" t="s">
+      <c r="K38" s="56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="36">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="52">
         <v>2146</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B39" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C39" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="39">
+      <c r="D39" s="55">
         <v>35.4</v>
       </c>
-      <c r="E35" s="39">
+      <c r="E39" s="55">
         <v>948.45</v>
       </c>
-      <c r="F35" s="39">
+      <c r="F39" s="55">
         <v>1220</v>
       </c>
-      <c r="G35" s="39">
+      <c r="G39" s="55">
         <v>944.53</v>
       </c>
-      <c r="H35" s="39">
+      <c r="H39" s="55">
         <v>834.51</v>
       </c>
-      <c r="I35" s="39">
+      <c r="I39" s="55">
         <v>757.49</v>
       </c>
-      <c r="J35" s="39">
+      <c r="J39" s="55">
         <v>669.48</v>
       </c>
-      <c r="K35" s="40" t="s">
+      <c r="K39" s="56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="36">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="52">
         <v>2147</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="B40" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C40" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="39">
+      <c r="D40" s="55">
         <v>35.4</v>
       </c>
-      <c r="E36" s="39">
+      <c r="E40" s="55">
         <v>948.45</v>
       </c>
-      <c r="F36" s="39">
+      <c r="F40" s="55">
         <v>1318</v>
       </c>
-      <c r="G36" s="39">
+      <c r="G40" s="55">
         <v>1020.09</v>
       </c>
-      <c r="H36" s="39">
+      <c r="H40" s="55">
         <v>901.27</v>
       </c>
-      <c r="I36" s="39">
+      <c r="I40" s="55">
         <v>818.09</v>
       </c>
-      <c r="J36" s="39">
+      <c r="J40" s="55">
         <v>723.03</v>
       </c>
-      <c r="K36" s="40" t="s">
+      <c r="K40" s="56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B41" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C41" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="39">
+      <c r="D41" s="55">
         <v>35.4</v>
       </c>
-      <c r="E37" s="39">
+      <c r="E41" s="55">
         <v>948.45</v>
       </c>
-      <c r="F37" s="39">
+      <c r="F41" s="55">
         <v>1220</v>
       </c>
-      <c r="G37" s="39">
+      <c r="G41" s="55">
         <v>944.53</v>
       </c>
-      <c r="H37" s="39">
+      <c r="H41" s="55">
         <v>834.51</v>
       </c>
-      <c r="I37" s="39">
+      <c r="I41" s="55">
         <v>757.49</v>
       </c>
-      <c r="J37" s="39">
+      <c r="J41" s="55">
         <v>669.48</v>
       </c>
-      <c r="K37" s="40" t="s">
+      <c r="K41" s="56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="36">
+    <row r="42" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A42" s="52">
         <v>3119</v>
       </c>
-      <c r="B38" s="37" t="s">
+      <c r="B42" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C42" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="39">
+      <c r="D42" s="55">
         <v>18.75</v>
       </c>
-      <c r="E38" s="39">
+      <c r="E42" s="55">
         <v>482.95</v>
       </c>
-      <c r="F38" s="39">
+      <c r="F42" s="55">
         <v>691</v>
       </c>
-      <c r="G38" s="39">
+      <c r="G42" s="55">
         <v>549.99</v>
       </c>
-      <c r="H38" s="39">
+      <c r="H42" s="55">
         <v>493.97</v>
       </c>
-      <c r="I38" s="39">
+      <c r="I42" s="55">
         <v>454.76</v>
       </c>
-      <c r="J38" s="39">
+      <c r="J42" s="55">
         <v>409.94</v>
       </c>
-      <c r="K38" s="40" t="s">
+      <c r="K42" s="56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="36">
+    <row r="43" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A43" s="52">
         <v>3121</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B43" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C43" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="39">
+      <c r="D43" s="55">
         <v>18.75</v>
       </c>
-      <c r="E39" s="39">
+      <c r="E43" s="55">
         <v>482.95</v>
       </c>
-      <c r="F39" s="39">
+      <c r="F43" s="55">
         <v>697</v>
       </c>
-      <c r="G39" s="39">
+      <c r="G43" s="55">
         <v>556.41</v>
       </c>
-      <c r="H39" s="39">
+      <c r="H43" s="55">
         <v>500.38</v>
       </c>
-      <c r="I39" s="39">
+      <c r="I43" s="55">
         <v>461.17</v>
       </c>
-      <c r="J39" s="39">
+      <c r="J43" s="55">
         <v>416.35</v>
       </c>
-      <c r="K39" s="40" t="s">
+      <c r="K43" s="56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
         <v>2644</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B44" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C44" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D44" s="12">
         <v>28.2</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E44" s="12">
         <v>698.21</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F44" s="12">
         <v>930</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G44" s="12">
         <v>727.4</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H44" s="12">
         <v>646.4</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I44" s="12">
         <v>589.71</v>
       </c>
-      <c r="J40" s="12">
+      <c r="J44" s="12">
         <v>524.91</v>
       </c>
-      <c r="K40" s="13" t="s">
+      <c r="K44" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
         <v>2641</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B45" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C45" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D45" s="12">
         <v>28.2</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E45" s="12">
         <v>698.21</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F45" s="12">
         <v>930</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G45" s="12">
         <v>727.4</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H45" s="12">
         <v>646.4</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I45" s="12">
         <v>589.71</v>
       </c>
-      <c r="J41" s="12">
+      <c r="J45" s="12">
         <v>524.91</v>
       </c>
-      <c r="K41" s="13" t="s">
+      <c r="K45" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="21">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="52">
         <v>1095</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B46" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="24">
+      <c r="C46" s="54"/>
+      <c r="D46" s="55">
         <v>23.75</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E46" s="55">
         <v>748.98</v>
       </c>
-      <c r="F42" s="24">
+      <c r="F46" s="55">
         <v>967</v>
       </c>
-      <c r="G42" s="24">
+      <c r="G46" s="55">
         <v>749.09</v>
       </c>
-      <c r="H42" s="24">
+      <c r="H46" s="55">
         <v>662.21</v>
       </c>
-      <c r="I42" s="24">
+      <c r="I46" s="55">
         <v>601.39</v>
       </c>
-      <c r="J42" s="24">
+      <c r="J46" s="55">
         <v>531.89</v>
       </c>
-      <c r="K42" s="25" t="s">
+      <c r="K46" s="56" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="21">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="52">
         <v>77</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B47" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="24">
+      <c r="C47" s="54"/>
+      <c r="D47" s="55">
         <v>32.950000000000003</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E47" s="55">
         <v>829.13</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F47" s="55">
         <v>1067</v>
       </c>
-      <c r="G43" s="24">
+      <c r="G47" s="55">
         <v>825.71</v>
       </c>
-      <c r="H43" s="24">
+      <c r="H47" s="55">
         <v>729.53</v>
       </c>
-      <c r="I43" s="24">
+      <c r="I47" s="55">
         <v>662.2</v>
       </c>
-      <c r="J43" s="24">
+      <c r="J47" s="55">
         <v>585.26</v>
       </c>
-      <c r="K43" s="25" t="s">
+      <c r="K47" s="56" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B48" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="24">
+      <c r="C48" s="54"/>
+      <c r="D48" s="55">
         <v>23.5</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E48" s="55">
         <v>570.47</v>
       </c>
-      <c r="F44" s="24">
+      <c r="F48" s="55">
         <v>734</v>
       </c>
-      <c r="G44" s="24">
+      <c r="G48" s="55">
         <v>568.12</v>
       </c>
-      <c r="H44" s="24">
+      <c r="H48" s="55">
         <v>501.95</v>
       </c>
-      <c r="I44" s="24">
+      <c r="I48" s="55">
         <v>455.63</v>
       </c>
-      <c r="J44" s="24">
+      <c r="J48" s="55">
         <v>402.69</v>
       </c>
-      <c r="K44" s="25" t="s">
+      <c r="K48" s="56" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B49" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="17">
+      <c r="C49" s="16"/>
+      <c r="D49" s="17">
         <v>20.45</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E49" s="17">
         <v>573.29999999999995</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F49" s="17">
         <v>738</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G49" s="17">
         <v>570.92999999999995</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H49" s="17">
         <v>504.43</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I49" s="17">
         <v>457.88</v>
       </c>
-      <c r="J45" s="17">
+      <c r="J49" s="17">
         <v>404.68</v>
       </c>
-      <c r="K45" s="18" t="s">
+      <c r="K49" s="18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="41" t="s">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B50" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C50" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D50" s="17">
         <v>25.15</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E50" s="17">
         <v>626.41999999999996</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F50" s="17">
         <v>826</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G50" s="17">
         <v>643.88</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H50" s="17">
         <v>571.21</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I50" s="17">
         <v>520.35</v>
       </c>
-      <c r="J46" s="17">
+      <c r="J50" s="17">
         <v>462.22</v>
       </c>
-      <c r="K46" s="18" t="s">
+      <c r="K50" s="18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="14">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
         <v>2864</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B51" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C51" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D51" s="17">
         <v>22.95</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E51" s="17">
         <v>572.22</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F51" s="17">
         <v>736</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G51" s="17">
         <v>569.88</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H51" s="17">
         <v>503.5</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I51" s="17">
         <v>457.04</v>
       </c>
-      <c r="J47" s="17">
+      <c r="J51" s="17">
         <v>403.94</v>
       </c>
-      <c r="K47" s="18" t="s">
+      <c r="K51" s="18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="14">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
         <v>103</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B52" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="17">
+      <c r="C52" s="16"/>
+      <c r="D52" s="17">
         <v>15.75</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E52" s="17">
         <v>370.96</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F52" s="17">
         <v>477</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G52" s="17">
         <v>369.41</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H52" s="17">
         <v>326.38</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I52" s="17">
         <v>296.26</v>
       </c>
-      <c r="J48" s="17">
+      <c r="J52" s="17">
         <v>261.83999999999997</v>
       </c>
-      <c r="K48" s="18" t="s">
+      <c r="K52" s="18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="26">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="52">
         <v>3146</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B53" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C53" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="D49" s="29">
+      <c r="D53" s="55">
         <v>48.75</v>
       </c>
-      <c r="E49" s="29">
+      <c r="E53" s="55">
         <v>1335.16</v>
       </c>
-      <c r="F49" s="29">
+      <c r="F53" s="55">
         <v>1724</v>
       </c>
-      <c r="G49" s="29">
+      <c r="G53" s="55">
         <v>1336.55</v>
       </c>
-      <c r="H49" s="29">
+      <c r="H53" s="55">
         <v>1181.68</v>
       </c>
-      <c r="I49" s="29">
+      <c r="I53" s="55">
         <v>1073.26</v>
       </c>
-      <c r="J49" s="29">
+      <c r="J53" s="55">
         <v>949.36</v>
       </c>
-      <c r="K49" s="30" t="s">
+      <c r="K53" s="56" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="26">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="52">
         <v>3150</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B54" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C54" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="D50" s="29">
+      <c r="D54" s="55">
         <v>48.75</v>
       </c>
-      <c r="E50" s="29">
+      <c r="E54" s="55">
         <v>1335.16</v>
       </c>
-      <c r="F50" s="29">
+      <c r="F54" s="55">
         <v>1724</v>
       </c>
-      <c r="G50" s="29">
+      <c r="G54" s="55">
         <v>1336.55</v>
       </c>
-      <c r="H50" s="29">
+      <c r="H54" s="55">
         <v>1181.68</v>
       </c>
-      <c r="I50" s="29">
+      <c r="I54" s="55">
         <v>1073.26</v>
       </c>
-      <c r="J50" s="29">
+      <c r="J54" s="55">
         <v>949.36</v>
       </c>
-      <c r="K50" s="30" t="s">
+      <c r="K54" s="56" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="26">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="52">
         <v>267</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B55" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C55" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="29">
+      <c r="D55" s="55">
         <v>43.85</v>
       </c>
-      <c r="E51" s="29">
+      <c r="E55" s="55">
         <v>1049.1099999999999</v>
       </c>
-      <c r="F51" s="29">
+      <c r="F55" s="55">
         <v>1350</v>
       </c>
-      <c r="G51" s="29">
+      <c r="G55" s="55">
         <v>1044.8</v>
       </c>
-      <c r="H51" s="29">
+      <c r="H55" s="55">
         <v>923.11</v>
       </c>
-      <c r="I51" s="29">
+      <c r="I55" s="55">
         <v>837.92</v>
       </c>
-      <c r="J51" s="29">
+      <c r="J55" s="55">
         <v>740.56</v>
       </c>
-      <c r="K51" s="30" t="s">
+      <c r="K55" s="56" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="26">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="52">
         <v>65</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="B56" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="28"/>
-      <c r="D52" s="29">
+      <c r="C56" s="54"/>
+      <c r="D56" s="55">
         <v>25.75</v>
       </c>
-      <c r="E52" s="29">
+      <c r="E56" s="55">
         <v>689.46</v>
       </c>
-      <c r="F52" s="29">
+      <c r="F56" s="55">
         <v>887</v>
       </c>
-      <c r="G52" s="29">
+      <c r="G56" s="55">
         <v>686.63</v>
       </c>
-      <c r="H52" s="29">
+      <c r="H56" s="55">
         <v>606.66</v>
       </c>
-      <c r="I52" s="29">
+      <c r="I56" s="55">
         <v>550.66999999999996</v>
       </c>
-      <c r="J52" s="29">
+      <c r="J56" s="55">
         <v>486.69</v>
       </c>
-      <c r="K52" s="30" t="s">
+      <c r="K56" s="56" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="26">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="52">
         <v>32</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B57" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="29">
+      <c r="C57" s="54"/>
+      <c r="D57" s="55">
         <v>12.95</v>
       </c>
-      <c r="E53" s="29">
+      <c r="E57" s="55">
         <v>356.95</v>
       </c>
-      <c r="F53" s="29">
+      <c r="F57" s="55">
         <v>460</v>
       </c>
-      <c r="G53" s="29">
+      <c r="G57" s="55">
         <v>355.48</v>
       </c>
-      <c r="H53" s="29">
+      <c r="H57" s="55">
         <v>314.08</v>
       </c>
-      <c r="I53" s="29">
+      <c r="I57" s="55">
         <v>285.08999999999997</v>
       </c>
-      <c r="J53" s="29">
+      <c r="J57" s="55">
         <v>251.97</v>
       </c>
-      <c r="K53" s="30" t="s">
+      <c r="K57" s="56" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="26">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="52">
         <v>39</v>
       </c>
-      <c r="B54" s="27" t="s">
+      <c r="B58" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="29">
+      <c r="C58" s="54"/>
+      <c r="D58" s="55">
         <v>49.95</v>
       </c>
-      <c r="E54" s="29">
+      <c r="E58" s="55">
         <v>1296.6500000000001</v>
       </c>
-      <c r="F54" s="29">
+      <c r="F58" s="55">
         <v>1668</v>
       </c>
-      <c r="G54" s="29">
+      <c r="G58" s="55">
         <v>1291.32</v>
       </c>
-      <c r="H54" s="29">
+      <c r="H58" s="55">
         <v>1140.9100000000001</v>
       </c>
-      <c r="I54" s="29">
+      <c r="I58" s="55">
         <v>1035.6199999999999</v>
       </c>
-      <c r="J54" s="29">
+      <c r="J58" s="55">
         <v>915.29</v>
       </c>
-      <c r="K54" s="30" t="s">
+      <c r="K58" s="56" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="36">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="29">
         <v>2374</v>
       </c>
-      <c r="B55" s="37" t="s">
+      <c r="B59" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="C55" s="38" t="s">
+      <c r="C59" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="D55" s="39">
+      <c r="D59" s="32">
         <v>26.5</v>
       </c>
-      <c r="E55" s="39">
+      <c r="E59" s="32">
         <v>760.45</v>
       </c>
-      <c r="F55" s="39">
+      <c r="F59" s="32">
         <v>992</v>
       </c>
-      <c r="G55" s="39">
+      <c r="G59" s="32">
         <v>771.08</v>
       </c>
-      <c r="H55" s="39">
+      <c r="H59" s="32">
         <v>682.87</v>
       </c>
-      <c r="I55" s="39">
+      <c r="I59" s="32">
         <v>621.12</v>
       </c>
-      <c r="J55" s="39">
+      <c r="J59" s="32">
         <v>550.54999999999995</v>
       </c>
-      <c r="K55" s="40" t="s">
+      <c r="K59" s="33" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="36">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="29">
         <v>1094</v>
       </c>
-      <c r="B56" s="37" t="s">
+      <c r="B60" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="C56" s="38"/>
-      <c r="D56" s="39">
+      <c r="C60" s="31"/>
+      <c r="D60" s="32">
         <v>15.5</v>
       </c>
-      <c r="E56" s="39">
+      <c r="E60" s="32">
         <v>356.95</v>
       </c>
-      <c r="F56" s="39">
+      <c r="F60" s="32">
         <v>460</v>
       </c>
-      <c r="G56" s="39">
+      <c r="G60" s="32">
         <v>355.48</v>
       </c>
-      <c r="H56" s="39">
+      <c r="H60" s="32">
         <v>314.08</v>
       </c>
-      <c r="I56" s="39">
+      <c r="I60" s="32">
         <v>285.08999999999997</v>
       </c>
-      <c r="J56" s="39">
+      <c r="J60" s="32">
         <v>251.97</v>
       </c>
-      <c r="K56" s="40" t="s">
+      <c r="K60" s="33" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="9">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="52">
         <v>1061</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B61" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="12">
+      <c r="C61" s="54"/>
+      <c r="D61" s="55">
         <v>37</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E61" s="55">
         <v>777.34</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F61" s="55">
         <v>1000</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G61" s="55">
         <v>774.13</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H61" s="55">
         <v>683.96</v>
       </c>
-      <c r="I57" s="12">
+      <c r="I61" s="55">
         <v>620.84</v>
       </c>
-      <c r="J57" s="12">
+      <c r="J61" s="55">
         <v>548.70000000000005</v>
       </c>
-      <c r="K57" s="13" t="s">
+      <c r="K61" s="56" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+    <row r="62" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A62" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B62" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="12">
+      <c r="C62" s="54"/>
+      <c r="D62" s="55">
         <v>15.75</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E62" s="55">
         <v>376.23</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F62" s="55">
         <v>484</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G62" s="55">
         <v>374.68</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H62" s="55">
         <v>331.04</v>
       </c>
-      <c r="I58" s="12">
+      <c r="I62" s="55">
         <v>300.49</v>
       </c>
-      <c r="J58" s="12">
+      <c r="J62" s="55">
         <v>262.58</v>
       </c>
-      <c r="K58" s="13" t="s">
+      <c r="K62" s="56" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B63" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="12">
+      <c r="C63" s="54"/>
+      <c r="D63" s="55">
         <v>10.7</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E63" s="55">
         <v>267.74</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F63" s="55">
         <v>345</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G63" s="55">
         <v>266.64</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H63" s="55">
         <v>235.59</v>
       </c>
-      <c r="I59" s="12">
+      <c r="I63" s="55">
         <v>213.85</v>
       </c>
-      <c r="J59" s="12">
+      <c r="J63" s="55">
         <v>189</v>
       </c>
-      <c r="K59" s="13" t="s">
+      <c r="K63" s="56" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="9">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="52">
         <v>831</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B64" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C64" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D64" s="55">
         <v>37.1</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E64" s="55">
         <v>987.74</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F64" s="55">
         <v>1271</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G64" s="55">
         <v>983.67</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H64" s="55">
         <v>869.1</v>
       </c>
-      <c r="I60" s="12">
+      <c r="I64" s="55">
         <v>788.89</v>
       </c>
-      <c r="J60" s="12">
+      <c r="J64" s="55">
         <v>697.23</v>
       </c>
-      <c r="K60" s="13" t="s">
+      <c r="K64" s="56" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="14">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="14">
         <v>364</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B65" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C65" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D65" s="17">
         <v>13.22</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E65" s="17">
         <v>339.47</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F65" s="17">
         <v>644</v>
       </c>
-      <c r="G61" s="17">
+      <c r="G65" s="17">
         <v>551.46</v>
       </c>
-      <c r="H61" s="17">
+      <c r="H65" s="17">
         <v>514.79999999999995</v>
       </c>
-      <c r="I61" s="17">
+      <c r="I65" s="17">
         <v>489.13</v>
       </c>
-      <c r="J61" s="17">
+      <c r="J65" s="17">
         <v>459.8</v>
-      </c>
-      <c r="K61" s="18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="14">
-        <v>366</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D62" s="17">
-        <v>13.22</v>
-      </c>
-      <c r="E62" s="17">
-        <v>339.47</v>
-      </c>
-      <c r="F62" s="17">
-        <v>644</v>
-      </c>
-      <c r="G62" s="17">
-        <v>551.46</v>
-      </c>
-      <c r="H62" s="17">
-        <v>514.79999999999995</v>
-      </c>
-      <c r="I62" s="17">
-        <v>489.13</v>
-      </c>
-      <c r="J62" s="17">
-        <v>459.8</v>
-      </c>
-      <c r="K62" s="18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="14">
-        <v>3525</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D63" s="17">
-        <v>10.95</v>
-      </c>
-      <c r="E63" s="17">
-        <v>278.2</v>
-      </c>
-      <c r="F63" s="17">
-        <v>519</v>
-      </c>
-      <c r="G63" s="17">
-        <v>443.22</v>
-      </c>
-      <c r="H63" s="17">
-        <v>413.18</v>
-      </c>
-      <c r="I63" s="17">
-        <v>392.14</v>
-      </c>
-      <c r="J63" s="17">
-        <v>368.11</v>
-      </c>
-      <c r="K63" s="18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D64" s="17">
-        <v>12.1</v>
-      </c>
-      <c r="E64" s="17">
-        <v>289.68</v>
-      </c>
-      <c r="F64" s="17">
-        <v>463</v>
-      </c>
-      <c r="G64" s="17">
-        <v>371.43</v>
-      </c>
-      <c r="H64" s="17">
-        <v>335.14</v>
-      </c>
-      <c r="I64" s="17">
-        <v>309.74</v>
-      </c>
-      <c r="J64" s="17">
-        <v>280.7</v>
-      </c>
-      <c r="K64" s="18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D65" s="17">
-        <v>13.4</v>
-      </c>
-      <c r="E65" s="17">
-        <v>305.88</v>
-      </c>
-      <c r="F65" s="17">
-        <v>528</v>
-      </c>
-      <c r="G65" s="17">
-        <v>431.3</v>
-      </c>
-      <c r="H65" s="17">
-        <v>392.98</v>
-      </c>
-      <c r="I65" s="17">
-        <v>366.16</v>
-      </c>
-      <c r="J65" s="17">
-        <v>335.5</v>
       </c>
       <c r="K65" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="27" x14ac:dyDescent="0.25">
-      <c r="A66" s="21">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="14">
+        <v>366</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" s="17">
+        <v>13.22</v>
+      </c>
+      <c r="E66" s="17">
+        <v>339.47</v>
+      </c>
+      <c r="F66" s="17">
+        <v>644</v>
+      </c>
+      <c r="G66" s="17">
+        <v>551.46</v>
+      </c>
+      <c r="H66" s="17">
+        <v>514.79999999999995</v>
+      </c>
+      <c r="I66" s="17">
+        <v>489.13</v>
+      </c>
+      <c r="J66" s="17">
+        <v>459.8</v>
+      </c>
+      <c r="K66" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="14">
+        <v>3525</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="17">
+        <v>10.95</v>
+      </c>
+      <c r="E67" s="17">
+        <v>278.2</v>
+      </c>
+      <c r="F67" s="17">
+        <v>519</v>
+      </c>
+      <c r="G67" s="17">
+        <v>443.22</v>
+      </c>
+      <c r="H67" s="17">
+        <v>413.18</v>
+      </c>
+      <c r="I67" s="17">
+        <v>392.14</v>
+      </c>
+      <c r="J67" s="17">
+        <v>368.11</v>
+      </c>
+      <c r="K67" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="17">
+        <v>12.1</v>
+      </c>
+      <c r="E68" s="17">
+        <v>289.68</v>
+      </c>
+      <c r="F68" s="17">
+        <v>463</v>
+      </c>
+      <c r="G68" s="17">
+        <v>371.43</v>
+      </c>
+      <c r="H68" s="17">
+        <v>335.14</v>
+      </c>
+      <c r="I68" s="17">
+        <v>309.74</v>
+      </c>
+      <c r="J68" s="17">
+        <v>280.7</v>
+      </c>
+      <c r="K68" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D69" s="17">
+        <v>13.4</v>
+      </c>
+      <c r="E69" s="17">
+        <v>305.88</v>
+      </c>
+      <c r="F69" s="17">
+        <v>528</v>
+      </c>
+      <c r="G69" s="17">
+        <v>431.3</v>
+      </c>
+      <c r="H69" s="17">
+        <v>392.98</v>
+      </c>
+      <c r="I69" s="17">
+        <v>366.16</v>
+      </c>
+      <c r="J69" s="17">
+        <v>335.5</v>
+      </c>
+      <c r="K69" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="27" x14ac:dyDescent="0.25">
+      <c r="A70" s="52">
         <v>3115</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B70" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="24">
+      <c r="C70" s="54"/>
+      <c r="D70" s="55">
         <v>19.95</v>
       </c>
-      <c r="E66" s="24">
+      <c r="E70" s="55">
         <v>542.47</v>
       </c>
-      <c r="F66" s="24">
+      <c r="F70" s="55">
         <v>698</v>
       </c>
-      <c r="G66" s="24">
+      <c r="G70" s="55">
         <v>540.23</v>
       </c>
-      <c r="H66" s="24">
+      <c r="H70" s="55">
         <v>477.3</v>
       </c>
-      <c r="I66" s="24">
+      <c r="I70" s="55">
         <v>433.25</v>
       </c>
-      <c r="J66" s="24">
+      <c r="J70" s="55">
         <v>382.91</v>
       </c>
-      <c r="K66" s="25" t="s">
+      <c r="K70" s="56" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="27" x14ac:dyDescent="0.25">
-      <c r="A67" s="21">
+    <row r="71" spans="1:11" ht="27" x14ac:dyDescent="0.25">
+      <c r="A71" s="52">
         <v>2364</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B71" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="C67" s="23"/>
-      <c r="D67" s="24">
+      <c r="C71" s="54"/>
+      <c r="D71" s="55">
         <v>22</v>
       </c>
-      <c r="E67" s="24">
+      <c r="E71" s="55">
         <v>614.45000000000005</v>
       </c>
-      <c r="F67" s="24">
+      <c r="F71" s="55">
         <v>791</v>
       </c>
-      <c r="G67" s="24">
+      <c r="G71" s="55">
         <v>611.92999999999995</v>
       </c>
-      <c r="H67" s="24">
+      <c r="H71" s="55">
         <v>540.66</v>
       </c>
-      <c r="I67" s="24">
+      <c r="I71" s="55">
         <v>490.76</v>
       </c>
-      <c r="J67" s="24">
+      <c r="J71" s="55">
         <v>433.7</v>
       </c>
-      <c r="K67" s="25" t="s">
+      <c r="K71" s="56" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="21" t="s">
+    <row r="72" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A72" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B72" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="C68" s="23"/>
-      <c r="D68" s="24">
+      <c r="C72" s="54"/>
+      <c r="D72" s="55">
         <v>21.95</v>
       </c>
-      <c r="E68" s="24">
+      <c r="E72" s="55">
         <v>615.95000000000005</v>
       </c>
-      <c r="F68" s="24">
+      <c r="F72" s="55">
         <v>793</v>
       </c>
-      <c r="G68" s="24">
+      <c r="G72" s="55">
         <v>613.41999999999996</v>
       </c>
-      <c r="H68" s="24">
+      <c r="H72" s="55">
         <v>541.97</v>
       </c>
-      <c r="I68" s="24">
+      <c r="I72" s="55">
         <v>491.96</v>
       </c>
-      <c r="J68" s="24">
+      <c r="J72" s="55">
         <v>434.8</v>
       </c>
-      <c r="K68" s="25" t="s">
+      <c r="K72" s="56" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A69" s="21">
+    <row r="73" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A73" s="52">
         <v>64</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B73" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="C69" s="23"/>
-      <c r="D69" s="24">
+      <c r="C73" s="54"/>
+      <c r="D73" s="55">
         <v>17.2</v>
       </c>
-      <c r="E69" s="24">
+      <c r="E73" s="55">
         <v>449.74</v>
       </c>
-      <c r="F69" s="24">
+      <c r="F73" s="55">
         <v>579</v>
       </c>
-      <c r="G69" s="24">
+      <c r="G73" s="55">
         <v>447.88</v>
       </c>
-      <c r="H69" s="24">
+      <c r="H73" s="55">
         <v>395.71</v>
       </c>
-      <c r="I69" s="24">
+      <c r="I73" s="55">
         <v>359.19</v>
       </c>
-      <c r="J69" s="24">
+      <c r="J73" s="55">
         <v>317.45999999999998</v>
       </c>
-      <c r="K69" s="25" t="s">
+      <c r="K73" s="56" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="21" t="s">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="B74" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="23"/>
-      <c r="D70" s="24">
+      <c r="C74" s="54"/>
+      <c r="D74" s="55">
         <v>27.95</v>
       </c>
-      <c r="E70" s="24">
+      <c r="E74" s="55">
         <v>676.77</v>
       </c>
-      <c r="F70" s="24">
+      <c r="F74" s="55">
         <v>871</v>
       </c>
-      <c r="G70" s="24">
+      <c r="G74" s="55">
         <v>676.98</v>
       </c>
-      <c r="H70" s="24">
+      <c r="H74" s="55">
         <v>595.47</v>
       </c>
-      <c r="I70" s="24">
+      <c r="I74" s="55">
         <v>540.52</v>
       </c>
-      <c r="J70" s="24">
+      <c r="J74" s="55">
         <v>477.72</v>
       </c>
-      <c r="K70" s="25" t="s">
+      <c r="K74" s="56" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B75" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C75" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D75" s="12">
         <v>35.6</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E75" s="12">
         <v>851.66</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F75" s="12">
         <v>1274</v>
       </c>
-      <c r="G71" s="12">
+      <c r="G75" s="12">
         <v>1026.3699999999999</v>
       </c>
-      <c r="H71" s="12">
+      <c r="H75" s="12">
         <v>927.58</v>
       </c>
-      <c r="I71" s="12">
+      <c r="I75" s="12">
         <v>858.43</v>
       </c>
-      <c r="J71" s="12">
+      <c r="J75" s="12">
         <v>779.39</v>
-      </c>
-      <c r="K71" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="9">
-        <v>3492</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="12">
-        <v>43.15</v>
-      </c>
-      <c r="E72" s="12">
-        <v>1092.79</v>
-      </c>
-      <c r="F72" s="12">
-        <v>1473</v>
-      </c>
-      <c r="G72" s="12">
-        <v>1156.02</v>
-      </c>
-      <c r="H72" s="12">
-        <v>1029.25</v>
-      </c>
-      <c r="I72" s="12">
-        <v>940.52</v>
-      </c>
-      <c r="J72" s="12">
-        <v>839.11</v>
-      </c>
-      <c r="K72" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="9">
-        <v>3490</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D73" s="12">
-        <v>58.8</v>
-      </c>
-      <c r="E73" s="12">
-        <v>1737.17</v>
-      </c>
-      <c r="F73" s="12">
-        <v>2506</v>
-      </c>
-      <c r="G73" s="12">
-        <v>1961.14</v>
-      </c>
-      <c r="H73" s="12">
-        <v>1743.51</v>
-      </c>
-      <c r="I73" s="12">
-        <v>1591.17</v>
-      </c>
-      <c r="J73" s="12">
-        <v>1417.06</v>
-      </c>
-      <c r="K73" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="9">
-        <v>1120</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C74" s="11"/>
-      <c r="D74" s="12">
-        <v>58.8</v>
-      </c>
-      <c r="E74" s="12">
-        <v>1737.17</v>
-      </c>
-      <c r="F74" s="12">
-        <v>2329</v>
-      </c>
-      <c r="G74" s="12">
-        <v>1825.03</v>
-      </c>
-      <c r="H74" s="12">
-        <v>1623.52</v>
-      </c>
-      <c r="I74" s="12">
-        <v>1482.46</v>
-      </c>
-      <c r="J74" s="12">
-        <v>1321.25</v>
-      </c>
-      <c r="K74" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="9">
-        <v>1473</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D75" s="12">
-        <v>24.9</v>
-      </c>
-      <c r="E75" s="12">
-        <v>562.41999999999996</v>
-      </c>
-      <c r="F75" s="12">
-        <v>833</v>
-      </c>
-      <c r="G75" s="12">
-        <v>669.08</v>
-      </c>
-      <c r="H75" s="12">
-        <v>603.84</v>
-      </c>
-      <c r="I75" s="12">
-        <v>558.16999999999996</v>
-      </c>
-      <c r="J75" s="12">
-        <v>505.98</v>
       </c>
       <c r="K75" s="13" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
-        <v>117</v>
+      <c r="A76" s="9">
+        <v>3492</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C76" s="11"/>
+        <v>123</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="D76" s="12">
-        <v>11.3</v>
+        <v>43.15</v>
       </c>
       <c r="E76" s="12">
-        <v>273.10000000000002</v>
+        <v>1092.79</v>
       </c>
       <c r="F76" s="12">
-        <v>391</v>
+        <v>1473</v>
       </c>
       <c r="G76" s="12">
-        <v>310.95999999999998</v>
+        <v>1156.02</v>
       </c>
       <c r="H76" s="12">
-        <v>279.27999999999997</v>
+        <v>1029.25</v>
       </c>
       <c r="I76" s="12">
-        <v>257.10000000000002</v>
+        <v>940.52</v>
       </c>
       <c r="J76" s="12">
-        <v>231.76</v>
+        <v>839.11</v>
       </c>
       <c r="K76" s="13" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="31">
+      <c r="A77" s="9">
+        <v>3490</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D77" s="12">
+        <v>58.8</v>
+      </c>
+      <c r="E77" s="12">
+        <v>1737.17</v>
+      </c>
+      <c r="F77" s="12">
+        <v>2506</v>
+      </c>
+      <c r="G77" s="12">
+        <v>1961.14</v>
+      </c>
+      <c r="H77" s="12">
+        <v>1743.51</v>
+      </c>
+      <c r="I77" s="12">
+        <v>1591.17</v>
+      </c>
+      <c r="J77" s="12">
+        <v>1417.06</v>
+      </c>
+      <c r="K77" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
+        <v>1120</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C78" s="11"/>
+      <c r="D78" s="12">
+        <v>58.8</v>
+      </c>
+      <c r="E78" s="12">
+        <v>1737.17</v>
+      </c>
+      <c r="F78" s="12">
+        <v>2329</v>
+      </c>
+      <c r="G78" s="12">
+        <v>1825.03</v>
+      </c>
+      <c r="H78" s="12">
+        <v>1623.52</v>
+      </c>
+      <c r="I78" s="12">
+        <v>1482.46</v>
+      </c>
+      <c r="J78" s="12">
+        <v>1321.25</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
+        <v>1473</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D79" s="12">
+        <v>24.9</v>
+      </c>
+      <c r="E79" s="12">
+        <v>562.41999999999996</v>
+      </c>
+      <c r="F79" s="12">
+        <v>833</v>
+      </c>
+      <c r="G79" s="12">
+        <v>669.08</v>
+      </c>
+      <c r="H79" s="12">
+        <v>603.84</v>
+      </c>
+      <c r="I79" s="12">
+        <v>558.16999999999996</v>
+      </c>
+      <c r="J79" s="12">
+        <v>505.98</v>
+      </c>
+      <c r="K79" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C80" s="11"/>
+      <c r="D80" s="12">
+        <v>11.3</v>
+      </c>
+      <c r="E80" s="12">
+        <v>273.10000000000002</v>
+      </c>
+      <c r="F80" s="12">
+        <v>391</v>
+      </c>
+      <c r="G80" s="12">
+        <v>310.95999999999998</v>
+      </c>
+      <c r="H80" s="12">
+        <v>279.27999999999997</v>
+      </c>
+      <c r="I80" s="12">
+        <v>257.10000000000002</v>
+      </c>
+      <c r="J80" s="12">
+        <v>231.76</v>
+      </c>
+      <c r="K80" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="52">
         <v>766</v>
       </c>
-      <c r="B77" s="32" t="s">
+      <c r="B81" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C77" s="33"/>
-      <c r="D77" s="34">
+      <c r="C81" s="54"/>
+      <c r="D81" s="55">
         <v>16.75</v>
       </c>
-      <c r="E77" s="34">
+      <c r="E81" s="55">
         <v>349.97</v>
       </c>
-      <c r="F77" s="34">
+      <c r="F81" s="55">
         <v>451</v>
       </c>
-      <c r="G77" s="34">
+      <c r="G81" s="55">
         <v>348.52</v>
       </c>
-      <c r="H77" s="34">
+      <c r="H81" s="55">
         <v>307.92</v>
       </c>
-      <c r="I77" s="34">
+      <c r="I81" s="55">
         <v>279.51</v>
       </c>
-      <c r="J77" s="34">
+      <c r="J81" s="55">
         <v>247.03</v>
       </c>
-      <c r="K77" s="35" t="s">
+      <c r="K81" s="56" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="31">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="52">
         <v>765</v>
       </c>
-      <c r="B78" s="32" t="s">
+      <c r="B82" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="C78" s="33"/>
-      <c r="D78" s="34">
+      <c r="C82" s="54"/>
+      <c r="D82" s="55">
         <v>16.75</v>
       </c>
-      <c r="E78" s="34">
+      <c r="E82" s="55">
         <v>349.97</v>
       </c>
-      <c r="F78" s="34">
+      <c r="F82" s="55">
         <v>451</v>
       </c>
-      <c r="G78" s="34">
+      <c r="G82" s="55">
         <v>348.52</v>
       </c>
-      <c r="H78" s="34">
+      <c r="H82" s="55">
         <v>307.92</v>
       </c>
-      <c r="I78" s="34">
+      <c r="I82" s="55">
         <v>279.51</v>
       </c>
-      <c r="J78" s="34">
+      <c r="J82" s="55">
         <v>247.03</v>
       </c>
-      <c r="K78" s="35" t="s">
+      <c r="K82" s="56" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A79" s="31">
+    <row r="83" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A83" s="52">
         <v>767</v>
       </c>
-      <c r="B79" s="32" t="s">
+      <c r="B83" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="C79" s="33"/>
-      <c r="D79" s="34">
+      <c r="C83" s="54"/>
+      <c r="D83" s="55">
         <v>12.7</v>
       </c>
-      <c r="E79" s="34">
+      <c r="E83" s="55">
         <v>313.20999999999998</v>
       </c>
-      <c r="F79" s="34">
+      <c r="F83" s="55">
         <v>403</v>
       </c>
-      <c r="G79" s="34">
+      <c r="G83" s="55">
         <v>311.93</v>
       </c>
-      <c r="H79" s="34">
+      <c r="H83" s="55">
         <v>275.60000000000002</v>
       </c>
-      <c r="I79" s="34">
+      <c r="I83" s="55">
         <v>250.17</v>
       </c>
-      <c r="J79" s="34">
+      <c r="J83" s="55">
         <v>221.1</v>
       </c>
-      <c r="K79" s="35" t="s">
+      <c r="K83" s="56" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A80" s="31">
+    <row r="84" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A84" s="52">
         <v>768</v>
       </c>
-      <c r="B80" s="32" t="s">
+      <c r="B84" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="C80" s="33"/>
-      <c r="D80" s="34">
+      <c r="C84" s="54"/>
+      <c r="D84" s="55">
         <v>37.700000000000003</v>
       </c>
-      <c r="E80" s="34">
+      <c r="E84" s="55">
         <v>850.45</v>
       </c>
-      <c r="F80" s="34">
+      <c r="F84" s="55">
         <v>1094</v>
       </c>
-      <c r="G80" s="34">
+      <c r="G84" s="55">
         <v>846.94</v>
       </c>
-      <c r="H80" s="34">
+      <c r="H84" s="55">
         <v>748.28</v>
       </c>
-      <c r="I80" s="34">
+      <c r="I84" s="55">
         <v>679.23</v>
       </c>
-      <c r="J80" s="34">
+      <c r="J84" s="55">
         <v>600.30999999999995</v>
       </c>
-      <c r="K80" s="35" t="s">
+      <c r="K84" s="56" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A81" s="31">
+    <row r="85" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A85" s="52">
         <v>771</v>
       </c>
-      <c r="B81" s="32" t="s">
+      <c r="B85" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="C81" s="33"/>
-      <c r="D81" s="34">
+      <c r="C85" s="54"/>
+      <c r="D85" s="55">
         <v>26.35</v>
       </c>
-      <c r="E81" s="34">
+      <c r="E85" s="55">
         <v>594.96</v>
       </c>
-      <c r="F81" s="34">
+      <c r="F85" s="55">
         <v>766</v>
       </c>
-      <c r="G81" s="34">
+      <c r="G85" s="55">
         <v>592.49</v>
       </c>
-      <c r="H81" s="34">
+      <c r="H85" s="55">
         <v>523.48</v>
       </c>
-      <c r="I81" s="34">
+      <c r="I85" s="55">
         <v>475.17</v>
       </c>
-      <c r="J81" s="34">
+      <c r="J85" s="55">
         <v>419.95</v>
       </c>
-      <c r="K81" s="35" t="s">
+      <c r="K85" s="56" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A82" s="31">
+    <row r="86" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A86" s="52">
         <v>770</v>
       </c>
-      <c r="B82" s="32" t="s">
+      <c r="B86" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="C82" s="33"/>
-      <c r="D82" s="34">
+      <c r="C86" s="54"/>
+      <c r="D86" s="55">
         <v>26.35</v>
       </c>
-      <c r="E82" s="34">
+      <c r="E86" s="55">
         <v>594.96</v>
       </c>
-      <c r="F82" s="34">
+      <c r="F86" s="55">
         <v>766</v>
       </c>
-      <c r="G82" s="34">
+      <c r="G86" s="55">
         <v>592.49</v>
       </c>
-      <c r="H82" s="34">
+      <c r="H86" s="55">
         <v>523.48</v>
       </c>
-      <c r="I82" s="34">
+      <c r="I86" s="55">
         <v>475.17</v>
       </c>
-      <c r="J82" s="34">
+      <c r="J86" s="55">
         <v>419.95</v>
       </c>
-      <c r="K82" s="35" t="s">
+      <c r="K86" s="56" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="31">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="52">
         <v>899</v>
       </c>
-      <c r="B83" s="32" t="s">
+      <c r="B87" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="C83" s="33"/>
-      <c r="D83" s="34">
+      <c r="C87" s="54"/>
+      <c r="D87" s="55">
         <v>28.4</v>
       </c>
-      <c r="E83" s="34">
+      <c r="E87" s="55">
         <v>586.22</v>
       </c>
-      <c r="F83" s="34">
+      <c r="F87" s="55">
         <v>754</v>
       </c>
-      <c r="G83" s="34">
+      <c r="G87" s="55">
         <v>583.82000000000005</v>
       </c>
-      <c r="H83" s="34">
+      <c r="H87" s="55">
         <v>515.82000000000005</v>
       </c>
-      <c r="I83" s="34">
+      <c r="I87" s="55">
         <v>468.22</v>
       </c>
-      <c r="J83" s="34">
+      <c r="J87" s="55">
         <v>413.82</v>
       </c>
-      <c r="K83" s="35" t="s">
+      <c r="K87" s="56" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="31">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="52">
         <v>774</v>
       </c>
-      <c r="B84" s="32" t="s">
+      <c r="B88" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="C84" s="33"/>
-      <c r="D84" s="34">
+      <c r="C88" s="54"/>
+      <c r="D88" s="55">
         <v>28.4</v>
       </c>
-      <c r="E84" s="34">
+      <c r="E88" s="55">
         <v>642.24</v>
       </c>
-      <c r="F84" s="34">
+      <c r="F88" s="55">
         <v>826</v>
       </c>
-      <c r="G84" s="34">
+      <c r="G88" s="55">
         <v>639.59</v>
       </c>
-      <c r="H84" s="34">
+      <c r="H88" s="55">
         <v>565.09</v>
       </c>
-      <c r="I84" s="34">
+      <c r="I88" s="55">
         <v>512.94000000000005</v>
       </c>
-      <c r="J84" s="34">
+      <c r="J88" s="55">
         <v>453.34</v>
       </c>
-      <c r="K84" s="35" t="s">
+      <c r="K88" s="56" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A85" s="31">
+    <row r="89" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A89" s="52">
         <v>772</v>
       </c>
-      <c r="B85" s="32" t="s">
+      <c r="B89" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="C85" s="33"/>
-      <c r="D85" s="34">
+      <c r="C89" s="54"/>
+      <c r="D89" s="55">
         <v>13.1</v>
       </c>
-      <c r="E85" s="34">
+      <c r="E89" s="55">
         <v>269.48</v>
       </c>
-      <c r="F85" s="34">
+      <c r="F89" s="55">
         <v>347</v>
       </c>
-      <c r="G85" s="34">
+      <c r="G89" s="55">
         <v>268.38</v>
       </c>
-      <c r="H85" s="34">
+      <c r="H89" s="55">
         <v>237.12</v>
       </c>
-      <c r="I85" s="34">
+      <c r="I89" s="55">
         <v>215.24</v>
       </c>
-      <c r="J85" s="34">
+      <c r="J89" s="55">
         <v>190.23</v>
       </c>
-      <c r="K85" s="35" t="s">
+      <c r="K89" s="56" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A86" s="31">
+    <row r="90" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A90" s="52">
         <v>773</v>
       </c>
-      <c r="B86" s="32" t="s">
+      <c r="B90" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="C86" s="33"/>
-      <c r="D86" s="34">
+      <c r="C90" s="54"/>
+      <c r="D90" s="55">
         <v>14.2</v>
       </c>
-      <c r="E86" s="34">
+      <c r="E90" s="55">
         <v>332.47</v>
       </c>
-      <c r="F86" s="34">
+      <c r="F90" s="55">
         <v>428</v>
       </c>
-      <c r="G86" s="34">
+      <c r="G90" s="55">
         <v>331.1</v>
       </c>
-      <c r="H86" s="34">
+      <c r="H90" s="55">
         <v>292.54000000000002</v>
       </c>
-      <c r="I86" s="34">
+      <c r="I90" s="55">
         <v>265.54000000000002</v>
       </c>
-      <c r="J86" s="34">
+      <c r="J90" s="55">
         <v>234.69</v>
       </c>
-      <c r="K86" s="35" t="s">
+      <c r="K90" s="56" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A87" s="21">
+    <row r="91" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A91" s="19">
         <v>1492</v>
       </c>
-      <c r="B87" s="22" t="s">
+      <c r="B91" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C87" s="23"/>
-      <c r="D87" s="24">
+      <c r="C91" s="21"/>
+      <c r="D91" s="22">
         <v>86.25</v>
       </c>
-      <c r="E87" s="24">
+      <c r="E91" s="22">
         <v>1891.64</v>
       </c>
-      <c r="F87" s="24">
+      <c r="F91" s="22">
         <v>2433</v>
       </c>
-      <c r="G87" s="24">
+      <c r="G91" s="22">
         <v>1883.86</v>
       </c>
-      <c r="H87" s="24">
+      <c r="H91" s="22">
         <v>1664.43</v>
       </c>
-      <c r="I87" s="24">
+      <c r="I91" s="22">
         <v>1510.83</v>
       </c>
-      <c r="J87" s="24">
+      <c r="J91" s="22">
         <v>1335.29</v>
       </c>
-      <c r="K87" s="25" t="s">
+      <c r="K91" s="23" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A88" s="21">
+    <row r="92" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A92" s="19">
         <v>1496</v>
       </c>
-      <c r="B88" s="22" t="s">
+      <c r="B92" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C88" s="23"/>
-      <c r="D88" s="24">
+      <c r="C92" s="21"/>
+      <c r="D92" s="22">
         <v>86.25</v>
       </c>
-      <c r="E88" s="24">
+      <c r="E92" s="22">
         <v>1891.64</v>
       </c>
-      <c r="F88" s="24">
+      <c r="F92" s="22">
         <v>2433</v>
       </c>
-      <c r="G88" s="24">
+      <c r="G92" s="22">
         <v>1883.86</v>
       </c>
-      <c r="H88" s="24">
+      <c r="H92" s="22">
         <v>1664.43</v>
       </c>
-      <c r="I88" s="24">
+      <c r="I92" s="22">
         <v>1510.83</v>
       </c>
-      <c r="J88" s="24">
+      <c r="J92" s="22">
         <v>1335.29</v>
       </c>
-      <c r="K88" s="25" t="s">
+      <c r="K92" s="23" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A89" s="21">
+    <row r="93" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A93" s="19">
         <v>1493</v>
       </c>
-      <c r="B89" s="22" t="s">
+      <c r="B93" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C89" s="23"/>
-      <c r="D89" s="24">
+      <c r="C93" s="21"/>
+      <c r="D93" s="22">
         <v>176.65</v>
       </c>
-      <c r="E89" s="24">
+      <c r="E93" s="22">
         <v>3932.01</v>
       </c>
-      <c r="F89" s="24">
+      <c r="F93" s="22">
         <v>5057</v>
       </c>
-      <c r="G89" s="24">
+      <c r="G93" s="22">
         <v>3915.79</v>
       </c>
-      <c r="H89" s="24">
+      <c r="H93" s="22">
         <v>3459.67</v>
       </c>
-      <c r="I89" s="24">
+      <c r="I93" s="22">
         <v>3140.39</v>
       </c>
-      <c r="J89" s="24">
+      <c r="J93" s="22">
         <v>2775.5</v>
       </c>
-      <c r="K89" s="25" t="s">
+      <c r="K93" s="23" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A90" s="21">
+    <row r="94" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A94" s="19">
         <v>1497</v>
       </c>
-      <c r="B90" s="22" t="s">
+      <c r="B94" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="C90" s="23"/>
-      <c r="D90" s="24">
+      <c r="C94" s="21"/>
+      <c r="D94" s="22">
         <v>176.65</v>
       </c>
-      <c r="E90" s="24">
+      <c r="E94" s="22">
         <v>3932.01</v>
       </c>
-      <c r="F90" s="24">
+      <c r="F94" s="22">
         <v>5057</v>
       </c>
-      <c r="G90" s="24">
+      <c r="G94" s="22">
         <v>3915.79</v>
       </c>
-      <c r="H90" s="24">
+      <c r="H94" s="22">
         <v>3459.67</v>
       </c>
-      <c r="I90" s="24">
+      <c r="I94" s="22">
         <v>3140.39</v>
       </c>
-      <c r="J90" s="24">
+      <c r="J94" s="22">
         <v>2775.5</v>
       </c>
-      <c r="K90" s="25" t="s">
+      <c r="K94" s="23" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A91" s="21">
+    <row r="95" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A95" s="19">
         <v>1494</v>
       </c>
-      <c r="B91" s="22" t="s">
+      <c r="B95" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C91" s="23"/>
-      <c r="D91" s="24">
+      <c r="C95" s="21"/>
+      <c r="D95" s="22">
         <v>203.95</v>
       </c>
-      <c r="E91" s="24">
+      <c r="E95" s="22">
         <v>4533.96</v>
       </c>
-      <c r="F91" s="24">
+      <c r="F95" s="22">
         <v>5831</v>
       </c>
-      <c r="G91" s="24">
+      <c r="G95" s="22">
         <v>4515.2700000000004</v>
       </c>
-      <c r="H91" s="24">
+      <c r="H95" s="22">
         <v>3989.33</v>
       </c>
-      <c r="I91" s="24">
+      <c r="I95" s="22">
         <v>3621.17</v>
       </c>
-      <c r="J91" s="24">
+      <c r="J95" s="22">
         <v>3200.42</v>
       </c>
-      <c r="K91" s="25" t="s">
+      <c r="K95" s="23" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A92" s="21">
+    <row r="96" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A96" s="19">
         <v>1498</v>
       </c>
-      <c r="B92" s="22" t="s">
+      <c r="B96" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C92" s="23"/>
-      <c r="D92" s="24">
+      <c r="C96" s="21"/>
+      <c r="D96" s="22">
         <v>203.95</v>
       </c>
-      <c r="E92" s="24">
+      <c r="E96" s="22">
         <v>4533.96</v>
       </c>
-      <c r="F92" s="24">
+      <c r="F96" s="22">
         <v>5831</v>
       </c>
-      <c r="G92" s="24">
+      <c r="G96" s="22">
         <v>4515.2700000000004</v>
       </c>
-      <c r="H92" s="24">
+      <c r="H96" s="22">
         <v>3989.33</v>
       </c>
-      <c r="I92" s="24">
+      <c r="I96" s="22">
         <v>3621.17</v>
       </c>
-      <c r="J92" s="24">
+      <c r="J96" s="22">
         <v>3200.42</v>
       </c>
-      <c r="K92" s="25" t="s">
+      <c r="K96" s="23" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A93" s="54" t="s">
+    <row r="97" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A97" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="B93" s="55" t="s">
+      <c r="B97" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="C93" s="56"/>
-      <c r="D93" s="57">
+      <c r="C97" s="54"/>
+      <c r="D97" s="55">
         <v>8.0500000000000007</v>
       </c>
-      <c r="E93" s="57">
+      <c r="E97" s="55">
         <v>234.48</v>
       </c>
-      <c r="F93" s="57">
+      <c r="F97" s="55">
         <v>302</v>
       </c>
-      <c r="G93" s="57">
+      <c r="G97" s="55">
         <v>233.53</v>
       </c>
-      <c r="H93" s="57">
+      <c r="H97" s="55">
         <v>206.33</v>
       </c>
-      <c r="I93" s="57">
+      <c r="I97" s="55">
         <v>187.29</v>
       </c>
-      <c r="J93" s="57">
+      <c r="J97" s="55">
         <v>165.53</v>
       </c>
-      <c r="K93" s="58" t="s">
+      <c r="K97" s="56" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="27" x14ac:dyDescent="0.25">
-      <c r="A94" s="47"/>
-      <c r="B94" s="48" t="s">
+    <row r="98" spans="1:11" ht="27" x14ac:dyDescent="0.25">
+      <c r="A98" s="40"/>
+      <c r="B98" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="C94" s="49"/>
-      <c r="D94" s="50"/>
-      <c r="E94" s="50"/>
-      <c r="F94" s="50">
+      <c r="C98" s="42"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="43"/>
+      <c r="F98" s="43">
         <v>821.12</v>
       </c>
-      <c r="G94" s="50"/>
-      <c r="H94" s="50"/>
-      <c r="I94" s="50"/>
-      <c r="J94" s="50"/>
-      <c r="K94" s="51" t="s">
+      <c r="G98" s="43"/>
+      <c r="H98" s="43"/>
+      <c r="I98" s="43"/>
+      <c r="J98" s="43"/>
+      <c r="K98" s="44" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="47" t="s">
+    <row r="99" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="B95" s="52" t="s">
+      <c r="B99" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="C95" s="49"/>
-      <c r="D95" s="50"/>
-      <c r="E95" s="50"/>
-      <c r="F95" s="50">
+      <c r="C99" s="42"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="43"/>
+      <c r="F99" s="43">
         <v>222.63</v>
       </c>
-      <c r="G95" s="50"/>
-      <c r="H95" s="50"/>
-      <c r="I95" s="50"/>
-      <c r="J95" s="50"/>
-      <c r="K95" s="51" t="s">
+      <c r="G99" s="43"/>
+      <c r="H99" s="43"/>
+      <c r="I99" s="43"/>
+      <c r="J99" s="43"/>
+      <c r="K99" s="44" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="47" t="s">
+    <row r="100" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="B96" s="52" t="s">
+      <c r="B100" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="C96" s="49"/>
-      <c r="D96" s="50"/>
-      <c r="E96" s="50"/>
-      <c r="F96" s="50">
+      <c r="C100" s="42"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="43">
         <v>598.49</v>
       </c>
-      <c r="G96" s="50"/>
-      <c r="H96" s="50"/>
-      <c r="I96" s="50"/>
-      <c r="J96" s="50"/>
-      <c r="K96" s="51" t="s">
+      <c r="G100" s="43"/>
+      <c r="H100" s="43"/>
+      <c r="I100" s="43"/>
+      <c r="J100" s="43"/>
+      <c r="K100" s="44" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A97" s="59" t="s">
+    <row r="101" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A101" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="B97" s="60" t="s">
+      <c r="B101" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="C97" s="61"/>
-      <c r="D97" s="62"/>
-      <c r="E97" s="62"/>
-      <c r="F97" s="62">
+      <c r="C101" s="48"/>
+      <c r="D101" s="49"/>
+      <c r="E101" s="49"/>
+      <c r="F101" s="49">
         <v>1047.83</v>
       </c>
-      <c r="G97" s="62"/>
-      <c r="H97" s="62"/>
-      <c r="I97" s="62"/>
-      <c r="J97" s="62"/>
-      <c r="K97" s="63" t="s">
+      <c r="G101" s="49"/>
+      <c r="H101" s="49"/>
+      <c r="I101" s="49"/>
+      <c r="J101" s="49"/>
+      <c r="K101" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="59" t="s">
+    <row r="102" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="B98" s="60" t="s">
+      <c r="B102" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="C98" s="61"/>
-      <c r="D98" s="62"/>
-      <c r="E98" s="62"/>
-      <c r="F98" s="62">
+      <c r="C102" s="48"/>
+      <c r="D102" s="49"/>
+      <c r="E102" s="49"/>
+      <c r="F102" s="49">
         <v>233.82</v>
       </c>
-      <c r="G98" s="62"/>
-      <c r="H98" s="62"/>
-      <c r="I98" s="62"/>
-      <c r="J98" s="62"/>
-      <c r="K98" s="63" t="s">
+      <c r="G102" s="49"/>
+      <c r="H102" s="49"/>
+      <c r="I102" s="49"/>
+      <c r="J102" s="49"/>
+      <c r="K102" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="59" t="s">
+    <row r="103" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="B99" s="64" t="s">
+      <c r="B103" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="C99" s="61"/>
-      <c r="D99" s="62"/>
-      <c r="E99" s="62"/>
-      <c r="F99" s="62">
+      <c r="C103" s="48"/>
+      <c r="D103" s="49"/>
+      <c r="E103" s="49"/>
+      <c r="F103" s="49">
         <v>116.36</v>
       </c>
-      <c r="G99" s="62"/>
-      <c r="H99" s="62"/>
-      <c r="I99" s="62"/>
-      <c r="J99" s="62"/>
-      <c r="K99" s="63" t="s">
+      <c r="G103" s="49"/>
+      <c r="H103" s="49"/>
+      <c r="I103" s="49"/>
+      <c r="J103" s="49"/>
+      <c r="K103" s="50" t="s">
         <v>169</v>
       </c>
     </row>
